--- a/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
+++ b/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-6\D-6\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7D0BD-0365-465A-8707-D4439838ABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307DA805-CF54-436B-945D-58F5DBB1242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -270,30 +270,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_category</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>answer_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pageview</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,10 +283,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -329,10 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>森下佳亮、向後海</t>
     <rPh sb="0" eb="2">
       <t>モリシタ</t>
@@ -394,37 +366,221 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question_item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_item</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質疑応答管理システム</t>
+    <t>DOJO　Q＆A集</t>
+  </si>
+  <si>
+    <t>DOJO　Q＆A集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラえもんの４次元ポケット</t>
+    <rPh sb="7" eb="9">
+      <t>ジゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answerer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番に表示できるように開発者側で採番するため、自動にしない。
+また、このcategory表を編集したい場合は、開発者側がデータベースを直接操作する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カイハツシャガワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>チョクセツソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録者</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regestrant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日のみ、時間は入れない、
+型はうまく機能しなければvarchar型に変更</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しく追加、登録者IDと登録者違う場合</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使う段階で1000文字超える場合は、
+開発者側が変更する</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モジコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>カイハツシャガワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使う段階で1000文字超える場合は、
+開発者側が変更する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索順序に直結する</t>
     <rPh sb="0" eb="4">
-      <t>シツギオウトウ</t>
+      <t>ケンサクジュンジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他も必須？単元項目を実際に作るときに決定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質疑応答管理システム</t>
-    <rPh sb="0" eb="6">
-      <t>シツギオウトウカンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際には表示しない</t>
-    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>タンゲンコウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ジッサイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者側からデータベースに直接の操作する</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツシャガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者側からデータベースに直接の操作する</t>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +609,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -515,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +702,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -883,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,12 +1075,14 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -918,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -969,7 +1141,9 @@
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
@@ -991,15 +1165,17 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -1264,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,12 +1466,14 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1305,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1388,26 +1566,26 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
+        <v>id varchar (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1418,10 +1596,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1429,13 +1607,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_password varchar (20)</v>
+        <v>pass varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1777,8 +1955,594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951AC7-ED8B-4F61-B387-04835C284A3D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44351</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table qa (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>answerer varchar (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>category int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>question varchar (1000),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>answer varchar (1000),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>pageview int ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>regestrant varchar (20)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4B8B41-359D-42E8-95A6-1B78AC194F9C}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1791,24 +2555,28 @@
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.25" customWidth="1"/>
+    <col min="12" max="12" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1818,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1834,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1848,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1890,39 +2658,39 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table qa (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table category (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>61</v>
+      <c r="J10" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
+        <v>category int (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1930,31 +2698,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_id int ,</v>
+        <v>question_category varchar (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1962,583 +2726,24 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>answer_date datetime ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>answer_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>question_item_id int ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>question_content varchar (200),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>answer_content varchar (1000),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">pageview int </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4B8B41-359D-42E8-95A6-1B78AC194F9C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44351</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table category (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_item_id int (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_category varchar (40),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>question_item varchar (100)</v>

--- a/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
+++ b/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307DA805-CF54-436B-945D-58F5DBB1242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812370A-197D-4D3F-BB13-0237D11DE5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="qa" sheetId="7" r:id="rId3"/>
     <sheet name="category" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="textbook" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -216,13 +217,6 @@
     <t>回答内容</t>
     <rPh sb="0" eb="4">
       <t>カイトウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録者ID</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -453,10 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regestrant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年月日のみ、時間は入れない、
 型はうまく機能しなければvarchar型に変更</t>
     <rPh sb="0" eb="3">
@@ -543,28 +533,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他も必須？単元項目を実際に作るときに決定</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>タンゲンコウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開発者側からデータベースに直接の操作する</t>
     <rPh sb="0" eb="4">
       <t>カイハツシャガワ</t>
@@ -582,6 +550,52 @@
     <rPh sb="16" eb="18">
       <t>ソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森下佳亮</t>
+    <rPh sb="0" eb="2">
+      <t>モリシタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_course</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択順は、コース→単元→単元項目</t>
+    <rPh sb="0" eb="3">
+      <t>センタクジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>タンゲンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教科書</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textbook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registrant</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1053,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F3:F4"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1090,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1136,13 +1150,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1150,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1165,26 +1179,34 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -1440,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1467,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1483,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1513,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1563,23 +1585,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1593,13 +1615,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1607,7 +1629,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1948,15 +1970,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951AC7-ED8B-4F61-B387-04835C284A3D}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1974,7 +1997,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1982,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1998,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2014,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2028,7 +2051,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2078,85 +2101,81 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>question_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <v>date date ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>answerer varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2164,53 +2183,57 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>answerer varchar (20),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>category int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>48</v>
+      <c r="J14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>category int ,</v>
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>question varchar (1000),</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -2218,57 +2241,55 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>question varchar (1000),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>answer varchar (1000),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="3">
-        <v>1000</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>answer varchar (1000),</v>
+        <v>pageview int ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -2276,55 +2297,45 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>67</v>
+      <c r="I17" s="3"/>
+      <c r="J17" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>pageview int ,</v>
+        <v>registrant varchar (20)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>regestrant varchar (20)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -2508,25 +2519,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2541,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4B8B41-359D-42E8-95A6-1B78AC194F9C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2562,7 +2555,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2570,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2586,7 +2579,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2607,7 +2600,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2616,12 +2611,14 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44355</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2666,31 +2663,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>category int (20),</v>
+        <v>category int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2701,10 +2696,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>40</v>
@@ -2714,7 +2709,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2729,10 +2724,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2741,12 +2736,538 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>question_item varchar (100)</v>
+        <v>question_item varchar (100),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>question_course varchar (20)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C364E4-9AB7-44D6-9342-9D0F50F7DD59}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44356</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table textbook (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>question_category varchar (40),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>textbook varchar (100)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3063,10 +3584,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A95B2-4767-47F9-A44D-49AF843F3CA4}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
+++ b/documents/DB定義書_ドラえもんの４次元ポケット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-6\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5812370A-197D-4D3F-BB13-0237D11DE5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EB0A4-6FB9-4DB9-B66F-0D69A058D022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1215" yWindow="1890" windowWidth="17010" windowHeight="6345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1978,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951AC7-ED8B-4F61-B387-04835C284A3D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3076,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C364E4-9AB7-44D6-9342-9D0F50F7DD59}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
